--- a/data_processed/20250730/BTCUSDVOLSURFACE_20250730.xlsx
+++ b/data_processed/20250730/BTCUSDVOLSURFACE_20250730.xlsx
@@ -19136,7 +19136,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19223,7 +19223,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250730/BTCUSDVOLSURFACE_20250730.xlsx
+++ b/data_processed/20250730/BTCUSDVOLSURFACE_20250730.xlsx
@@ -19136,7 +19136,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19223,7 +19223,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
